--- a/v2/example/Sample.xlsx
+++ b/v2/example/Sample.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Develop\wukong\server\src\github.com\davyxu\tabtoy\exportorv2\example\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Develop\bombsvn\service\src\github.com\davyxu\tabtoy\v2\example\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -395,7 +395,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="85">
   <si>
     <t>类型</t>
     <phoneticPr fontId="8" type="noConversion"/>
@@ -454,10 +454,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>repeated int32</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>字段名</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -471,14 +467,6 @@
   </si>
   <si>
     <t>BuffID</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>repeated Prop</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>repeated int32</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
@@ -803,6 +791,36 @@
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve"> 1</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>[]int32</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Prop</t>
     </r>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -948,7 +966,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -966,9 +984,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
@@ -1429,7 +1444,7 @@
   <dimension ref="A1:M9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -1449,43 +1464,43 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="M1" s="7" t="s">
-        <v>28</v>
+        <v>43</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.15">
@@ -1496,85 +1511,85 @@
         <v>10</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>14</v>
+        <v>83</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>14</v>
+        <v>83</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>12</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>20</v>
+        <v>83</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="M2" s="6" t="s">
-        <v>19</v>
+        <v>44</v>
+      </c>
+      <c r="M2" s="9" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
-      <c r="M3" s="9" t="s">
-        <v>72</v>
+      <c r="M3" s="8" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>58</v>
-      </c>
       <c r="E4" s="3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H4" s="3"/>
       <c r="I4" s="3" t="s">
@@ -1584,10 +1599,10 @@
         <v>9</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="M4" s="3" t="s">
         <v>3</v>
@@ -1607,23 +1622,23 @@
       <c r="G5" s="2">
         <v>10</v>
       </c>
-      <c r="H5" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="I5" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="J5" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="K5" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="L5" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="M5" s="9" t="s">
-        <v>73</v>
+      <c r="H5" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="I5" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="K5" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="L5" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="M5" s="8" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.15">
@@ -1643,8 +1658,8 @@
       <c r="G6" s="2">
         <v>1</v>
       </c>
-      <c r="I6" s="9" t="s">
-        <v>71</v>
+      <c r="I6" s="8" t="s">
+        <v>68</v>
       </c>
       <c r="J6" s="2">
         <v>1</v>
@@ -1661,8 +1676,8 @@
         <v>0.7</v>
       </c>
       <c r="E7" s="4"/>
-      <c r="I7" s="9" t="s">
-        <v>70</v>
+      <c r="I7" s="8" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="33" x14ac:dyDescent="0.15">
@@ -1676,7 +1691,7 @@
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
       <c r="I8" s="2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.15">
@@ -1690,8 +1705,8 @@
         <v>1</v>
       </c>
       <c r="E9" s="4"/>
-      <c r="I9" s="9" t="s">
-        <v>71</v>
+      <c r="I9" s="8" t="s">
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -1723,73 +1738,73 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E2" t="s">
+        <v>58</v>
+      </c>
+      <c r="F2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G2" t="s">
+        <v>50</v>
+      </c>
+      <c r="H2" t="s">
         <v>49</v>
-      </c>
-      <c r="B2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D2" t="s">
-        <v>51</v>
-      </c>
-      <c r="E2" t="s">
-        <v>61</v>
-      </c>
-      <c r="F2" t="s">
-        <v>66</v>
-      </c>
-      <c r="G2" t="s">
-        <v>53</v>
-      </c>
-      <c r="H2" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="G3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="H3" s="3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E4" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="F4">
         <v>10</v>
@@ -1797,44 +1812,44 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E5" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
         <v>24</v>
       </c>
-      <c r="B6" t="s">
-        <v>27</v>
-      </c>
       <c r="C6" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E6" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
+        <v>76</v>
+      </c>
+      <c r="B7" t="s">
+        <v>78</v>
+      </c>
+      <c r="C7" t="s">
+        <v>77</v>
+      </c>
+      <c r="E7" t="s">
         <v>79</v>
-      </c>
-      <c r="B7" t="s">
-        <v>81</v>
-      </c>
-      <c r="C7" t="s">
-        <v>80</v>
-      </c>
-      <c r="E7" t="s">
-        <v>82</v>
       </c>
     </row>
   </sheetData>

--- a/v2/example/Sample.xlsx
+++ b/v2/example/Sample.xlsx
@@ -1,26 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Develop\bombsvn\service\src\github.com\davyxu\tabtoy\v2\example\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24270" windowHeight="8340"/>
+    <workbookView windowWidth="28695" windowHeight="15420"/>
   </bookViews>
   <sheets>
     <sheet name="Sample" sheetId="1" r:id="rId1"/>
     <sheet name="@Types" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511" concurrentCalc="0"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -30,15 +20,13 @@
     <author>Administrator</author>
   </authors>
   <commentList>
-    <comment ref="A3" authorId="0" shapeId="0">
+    <comment ref="A3" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
+            <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
           <t>Administrator:</t>
@@ -46,9 +34,7 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
+            <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -56,15 +42,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="E3" authorId="0" shapeId="0">
+    <comment ref="E3" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
+            <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
           <t>Administrator:</t>
@@ -72,9 +56,7 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
+            <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -82,15 +64,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="J3" authorId="0" shapeId="0">
+    <comment ref="J3" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
+            <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
           <t>Administrator:</t>
@@ -98,9 +78,7 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
+            <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -108,15 +86,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="I5" authorId="0" shapeId="0">
+    <comment ref="I5" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
+            <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
           <t>Administrator:</t>
@@ -124,9 +100,7 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
+            <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -134,15 +108,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="M5" authorId="0" shapeId="0">
+    <comment ref="M5" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
+            <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
           <t>Administrator:</t>
@@ -150,35 +122,21 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
+            <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-结构体字段依然支持</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>Alias别名功能, 在@Types Sheet中定义</t>
+结构体字段依然支持Alias别名功能, 在@Types Sheet中定义</t>
         </r>
       </text>
     </comment>
-    <comment ref="B6" authorId="0" shapeId="0">
+    <comment ref="B6" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
+            <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
           <t>Administrator:</t>
@@ -186,9 +144,7 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
+            <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -197,15 +153,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="D6" authorId="0" shapeId="0">
+    <comment ref="D6" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
+            <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
           <t>Administrator:</t>
@@ -213,9 +167,7 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
+            <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -223,15 +175,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="F6" authorId="0" shapeId="0">
+    <comment ref="F6" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
+            <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
           <t>Administrator:</t>
@@ -239,9 +189,7 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
+            <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -260,15 +208,13 @@
     <author>Davy</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0">
+    <comment ref="A1" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
+            <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
           <t>Administrator:</t>
@@ -276,9 +222,7 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
+            <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -286,15 +230,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="D2" authorId="0" shapeId="0">
+    <comment ref="D2" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
+            <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
           <t>Administrator:</t>
@@ -302,9 +244,7 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
+            <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -312,15 +252,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="E2" authorId="1" shapeId="0">
+    <comment ref="E2" authorId="1">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
+            <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
           <t>Davy:</t>
@@ -328,9 +266,7 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
+            <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -338,15 +274,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="D4" authorId="0" shapeId="0">
+    <comment ref="D4" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
+            <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
           <t>Administrator:</t>
@@ -354,9 +288,7 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
+            <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -364,15 +296,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="H4" authorId="0" shapeId="0">
+    <comment ref="H4" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
+            <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
           <t>Administrator:</t>
@@ -380,9 +310,7 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
+            <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -395,138 +323,178 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75">
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>IconID</t>
+  </si>
+  <si>
+    <t>NumericalRate</t>
+  </si>
+  <si>
+    <t>ItemID</t>
+  </si>
+  <si>
+    <t>BuffID</t>
+  </si>
+  <si>
+    <t>Pos</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>SkillID</t>
+  </si>
+  <si>
+    <t>AttackParam</t>
+  </si>
+  <si>
+    <t>SingleStruct</t>
+  </si>
+  <si>
+    <t>StrStruct</t>
+  </si>
+  <si>
+    <t>int64</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>int32</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>[]int32</t>
+  </si>
+  <si>
+    <t>Vec2</t>
+  </si>
+  <si>
+    <t>ActorType</t>
+  </si>
+  <si>
+    <t>Prop</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Prop</t>
+    </r>
+  </si>
+  <si>
+    <t>RepeatCheck:true MakeIndex:true</t>
+  </si>
+  <si>
+    <t>MakeIndex:true 自定义tag: "支持go的struct tag"</t>
+  </si>
+  <si>
+    <t>Default: "100"</t>
+  </si>
+  <si>
+    <t>ListSpliter: ";"</t>
+  </si>
+  <si>
+    <t>ListSpliter: "|"</t>
+  </si>
+  <si>
+    <t>唯一ID</t>
+  </si>
+  <si>
+    <t>名称</t>
+  </si>
+  <si>
+    <t>图标ID</t>
+  </si>
+  <si>
+    <t>攻击率</t>
+  </si>
+  <si>
+    <t>物品id</t>
+  </si>
+  <si>
+    <t>位置</t>
+  </si>
   <si>
     <t>类型</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>Type</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>Name</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能ID列表</t>
+  </si>
+  <si>
+    <t>攻击参数</t>
+  </si>
+  <si>
+    <t>单结构解析</t>
   </si>
   <si>
     <t>字符串结构</t>
-    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>黑猫警长</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>邋遢大王</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>葫芦\n娃</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>舒"克"</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>贝
-塔</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>技能ID列表</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>string</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>float</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>ActorType</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>int64</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>字段名</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>特性</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>NumericalRate</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>BuffID</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>BuffID</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>SkillID</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>BuffID</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Prop</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>HP</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>AttackRate</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>ExType</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>StrStruct</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>字段类型</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>float</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>ActorType</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>对象类型</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>int32</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>枚举值</t>
-    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>X</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>: 100 Y:89</t>
+    </r>
+  </si>
+  <si>
+    <t>唐僧</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t>4</t>
     </r>
     <r>
@@ -534,7 +502,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>;</t>
@@ -544,7 +511,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>6</t>
@@ -554,7 +520,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>;</t>
@@ -564,222 +529,19 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>7</t>
     </r>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>ItemID</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>int32</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Default: "100"</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>物品id</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>注释</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>IconID</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>int32</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>ListSpliter: ";"</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>ID</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>BuffID</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>SingleStruct</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Prop</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>单结构解析</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>ObjectType</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>FieldType</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Value</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Comment</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Meta</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>FieldName</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>唯一ID</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>名称</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>图标ID</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>攻击率</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>RepeatCheck:true MakeIndex:true</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>MakeIndex:true 自定义tag: "支持go的struct tag"</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Alias</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>别名</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>血量</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>攻击速率</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>额外类型</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Default</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>默认值</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>唐僧</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>孙悟空</t>
-  </si>
-  <si>
-    <t>沙僧</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>猪八戒</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>ListSpliter: "|"</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>血量: 3  额外类型:唐僧 | 血量:10  额外类型:孙悟空</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Pos</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>X</t>
-    </r>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>: 100 Y:89</t>
-    </r>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Vec2</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>血量:100攻击速率:1.2</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>TableName: "Sample" Package: "table" CSClassHeader: "[System.Serializable]"</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>AttackParam</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>int32</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Value</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>攻击值</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>AttackParam</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>攻击参数</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <r>
       <t>攻击值:</t>
     </r>
     <r>
@@ -787,143 +549,300 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve"> 1</t>
     </r>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>[]int32</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>[</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>]</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>Prop</t>
-    </r>
-    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>血量:100攻击速率:1.2</t>
+  </si>
+  <si>
+    <t>血量: 3  额外类型:唐僧 | 血量:10  额外类型:孙悟空</t>
+  </si>
+  <si>
+    <t>葫芦\n娃</t>
+  </si>
+  <si>
+    <t>猪八戒</t>
+  </si>
+  <si>
+    <t>舒"克"</t>
+  </si>
+  <si>
+    <t>沙僧</t>
+  </si>
+  <si>
+    <t>贝
+塔</t>
+  </si>
+  <si>
+    <t>孙悟空</t>
+  </si>
+  <si>
+    <t>邋遢大王</t>
+  </si>
+  <si>
+    <t>TableName: "Sample" Package: "table" CSClassHeader: "[System.Serializable]"</t>
+  </si>
+  <si>
+    <t>ObjectType</t>
+  </si>
+  <si>
+    <t>FieldName</t>
+  </si>
+  <si>
+    <t>FieldType</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>Alias</t>
+  </si>
+  <si>
+    <t>Default</t>
+  </si>
+  <si>
+    <t>Meta</t>
+  </si>
+  <si>
+    <t>Comment</t>
+  </si>
+  <si>
+    <t>对象类型</t>
+  </si>
+  <si>
+    <t>字段名</t>
+  </si>
+  <si>
+    <t>字段类型</t>
+  </si>
+  <si>
+    <t>枚举值</t>
+  </si>
+  <si>
+    <t>别名</t>
+  </si>
+  <si>
+    <t>默认值</t>
+  </si>
+  <si>
+    <t>特性</t>
+  </si>
+  <si>
+    <t>注释</t>
+  </si>
+  <si>
+    <t>HP</t>
+  </si>
+  <si>
+    <t>血量</t>
+  </si>
+  <si>
+    <t>AttackRate</t>
+  </si>
+  <si>
+    <t>攻击速率</t>
+  </si>
+  <si>
+    <t>ExType</t>
+  </si>
+  <si>
+    <t>额外类型</t>
+  </si>
+  <si>
+    <t>攻击值</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="13" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
-      <family val="2"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color indexed="8"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color indexed="8"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -936,8 +855,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -947,75 +1052,349 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
@@ -1029,7 +1408,7 @@
       <xdr:row>18</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="2" name="文本框 1"/>
         <xdr:cNvSpPr txBox="1"/>
@@ -1221,7 +1600,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1256,7 +1635,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1430,190 +1809,184 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:M9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="17.625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="20.125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.125" style="2" customWidth="1"/>
+    <col min="2" max="3" width="20.125" style="2" customWidth="1"/>
     <col min="4" max="5" width="19.5" style="2" customWidth="1"/>
-    <col min="6" max="7" width="15.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.75" style="2" customWidth="1"/>
-    <col min="9" max="9" width="17.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="21.875" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="21.875" style="2" customWidth="1"/>
+    <col min="6" max="8" width="15.75" style="2" customWidth="1"/>
+    <col min="9" max="9" width="17.75" style="2" customWidth="1"/>
+    <col min="10" max="12" width="21.875" style="2" customWidth="1"/>
     <col min="13" max="13" width="43.875" style="2" customWidth="1"/>
     <col min="14" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:13">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J4" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="M1" s="6" t="s">
-        <v>25</v>
+      <c r="K4" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="M2" s="9" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A3" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="8" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A4" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="K4" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="L4" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="M4" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:13">
       <c r="A5" s="2">
         <v>100</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>4</v>
+        <v>37</v>
       </c>
       <c r="D5" s="4">
         <v>0.6</v>
@@ -1622,31 +1995,31 @@
       <c r="G5" s="2">
         <v>10</v>
       </c>
-      <c r="H5" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="I5" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="K5" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="L5" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="M5" s="8" t="s">
-        <v>70</v>
+      <c r="H5" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>43</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:10">
       <c r="A6" s="2">
         <v>101</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>6</v>
+        <v>44</v>
       </c>
       <c r="D6" s="4">
         <v>0.8</v>
@@ -1658,204 +2031,206 @@
       <c r="G6" s="2">
         <v>1</v>
       </c>
-      <c r="I6" s="8" t="s">
-        <v>68</v>
+      <c r="I6" s="2" t="s">
+        <v>45</v>
       </c>
       <c r="J6" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:9">
       <c r="A7" s="2">
         <v>102</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>7</v>
+        <v>46</v>
       </c>
       <c r="D7" s="4">
         <v>0.7</v>
       </c>
       <c r="E7" s="4"/>
-      <c r="I7" s="8" t="s">
-        <v>67</v>
+      <c r="I7" s="2" t="s">
+        <v>47</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="33" x14ac:dyDescent="0.15">
+    <row r="8" ht="33" spans="1:9">
       <c r="A8" s="2">
         <v>103</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>8</v>
+        <v>48</v>
       </c>
       <c r="C8" s="5"/>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
       <c r="I8" s="2" t="s">
-        <v>66</v>
+        <v>49</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:9">
       <c r="A9" s="2">
         <v>104</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="D9" s="4">
         <v>1</v>
       </c>
       <c r="E9" s="4"/>
-      <c r="I9" s="8" t="s">
-        <v>68</v>
+      <c r="I9" s="2" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="7" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
   <drawing r:id="rId2"/>
   <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.625" customWidth="1"/>
+    <col min="1" max="1" width="10.5" customWidth="1"/>
+    <col min="2" max="3" width="11.625" customWidth="1"/>
     <col min="4" max="6" width="13.125" customWidth="1"/>
-    <col min="7" max="7" width="29.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="29.125" customWidth="1"/>
     <col min="8" max="8" width="10.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>75</v>
+        <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="B2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C2" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="D2" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="E2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F2" t="s">
+        <v>57</v>
+      </c>
+      <c r="G2" t="s">
         <v>58</v>
       </c>
-      <c r="F2" t="s">
+      <c r="H2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="3" ht="16.5" spans="1:8">
+      <c r="A3" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="G2" t="s">
-        <v>50</v>
-      </c>
-      <c r="H2" t="s">
-        <v>49</v>
+      <c r="E3" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>67</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A3" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B3" s="3" t="s">
+    <row r="4" spans="1:8">
+      <c r="A4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C4" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C4" t="s">
-        <v>30</v>
-      </c>
+      <c r="D4"/>
       <c r="E4" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="F4">
         <v>10</v>
       </c>
+      <c r="H4"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>70</v>
       </c>
       <c r="C5" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="E5" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>72</v>
       </c>
       <c r="C6" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="E6" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>76</v>
+        <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>78</v>
+        <v>55</v>
       </c>
       <c r="C7" t="s">
-        <v>77</v>
+        <v>14</v>
       </c>
       <c r="E7" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="7" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/v2/example/Sample.xlsx
+++ b/v2/example/Sample.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="15420"/>
+    <workbookView windowWidth="28695" windowHeight="14820"/>
   </bookViews>
   <sheets>
     <sheet name="Sample" sheetId="1" r:id="rId1"/>
@@ -423,10 +423,10 @@
     <t>Default: "100"</t>
   </si>
   <si>
+    <t>ListSpliter: "|"</t>
+  </si>
+  <si>
     <t>ListSpliter: ";"</t>
-  </si>
-  <si>
-    <t>ListSpliter: "|"</t>
   </si>
   <si>
     <t>唯一ID</t>
@@ -660,12 +660,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -693,6 +693,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -700,31 +707,10 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -736,14 +722,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -758,8 +752,38 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -775,7 +799,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -796,29 +828,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -826,21 +835,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -857,187 +851,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1066,17 +1060,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1085,7 +1084,16 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1105,17 +1113,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1131,11 +1128,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1154,162 +1157,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1818,7 +1812,7 @@
   <dimension ref="A1:M9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -1927,17 +1921,21 @@
       <c r="E3" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
+      <c r="F3" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>24</v>
+      </c>
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
       <c r="J3" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K3" s="3"/>
       <c r="L3" s="3"/>
       <c r="M3" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:13">

--- a/v2/example/Sample.xlsx
+++ b/v2/example/Sample.xlsx
@@ -4,11 +4,12 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="14820"/>
+    <workbookView windowWidth="28800" windowHeight="14835" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sample" sheetId="1" r:id="rId1"/>
     <sheet name="@Types" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
@@ -296,34 +297,12 @@
         </r>
       </text>
     </comment>
-    <comment ref="H4" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>Administrator:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-优先使用注释内容作为代码注释, 注释不存在时, 取特性的Alias字段内容</t>
-        </r>
-      </text>
-    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="76">
   <si>
     <t>ID</t>
   </si>
@@ -640,6 +619,9 @@
     <t>血量</t>
   </si>
   <si>
+    <t>lua导出模式</t>
+  </si>
+  <si>
     <t>AttackRate</t>
   </si>
   <si>
@@ -660,12 +642,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -693,21 +675,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -721,8 +697,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -744,14 +728,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -768,7 +744,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -782,6 +765,36 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -791,7 +804,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -805,35 +818,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="9"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="34">
@@ -851,187 +844,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1060,6 +1053,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -1076,24 +1084,6 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1128,6 +1118,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1143,17 +1142,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1165,10 +1158,10 @@
     <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1177,133 +1170,133 @@
     <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1811,8 +1804,8 @@
   <sheetPr/>
   <dimension ref="A1:M9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -1928,7 +1921,7 @@
         <v>24</v>
       </c>
       <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
+      <c r="I3"/>
       <c r="J3" s="3" t="s">
         <v>25</v>
       </c>
@@ -2092,19 +2085,19 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4:H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6"/>
   <cols>
     <col min="1" max="1" width="10.5" customWidth="1"/>
     <col min="2" max="3" width="11.625" customWidth="1"/>
     <col min="4" max="6" width="13.125" customWidth="1"/>
     <col min="7" max="7" width="29.125" customWidth="1"/>
-    <col min="8" max="8" width="10.5" customWidth="1"/>
+    <col min="8" max="8" width="28.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
@@ -2164,7 +2157,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:9">
       <c r="A4" t="s">
         <v>19</v>
       </c>
@@ -2181,20 +2174,22 @@
       <c r="F4">
         <v>10</v>
       </c>
-      <c r="H4"/>
+      <c r="I4" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
         <v>19</v>
       </c>
       <c r="B5" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C5" t="s">
         <v>15</v>
       </c>
       <c r="E5" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -2202,13 +2197,13 @@
         <v>19</v>
       </c>
       <c r="B6" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C6" t="s">
         <v>18</v>
       </c>
       <c r="E6" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -2222,7 +2217,7 @@
         <v>14</v>
       </c>
       <c r="E7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -2231,4 +2226,20 @@
   <headerFooter/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/v2/example/Sample.xlsx
+++ b/v2/example/Sample.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="14835" activeTab="1"/>
+    <workbookView windowWidth="28800" windowHeight="14835"/>
   </bookViews>
   <sheets>
     <sheet name="Sample" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E3" authorId="0">
+    <comment ref="F3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -65,7 +65,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J3" authorId="0">
+    <comment ref="K3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -87,7 +87,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I5" authorId="0">
+    <comment ref="J5" authorId="0">
       <text>
         <r>
           <rPr>
@@ -109,7 +109,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M5" authorId="0">
+    <comment ref="N5" authorId="0">
       <text>
         <r>
           <rPr>
@@ -154,7 +154,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D6" authorId="0">
+    <comment ref="E6" authorId="0">
       <text>
         <r>
           <rPr>
@@ -176,7 +176,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F6" authorId="0">
+    <comment ref="G6" authorId="0">
       <text>
         <r>
           <rPr>
@@ -302,12 +302,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="77">
   <si>
     <t>ID</t>
   </si>
   <si>
     <t>Name</t>
+  </si>
+  <si>
+    <t>EmptyName</t>
   </si>
   <si>
     <t>IconID</t>
@@ -642,10 +645,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -676,6 +679,127 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -690,112 +814,6 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -803,21 +821,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -844,187 +847,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1053,26 +1056,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1084,6 +1078,21 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1103,17 +1112,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1127,26 +1130,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1158,10 +1161,10 @@
     <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1170,133 +1173,133 @@
     <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1390,7 +1393,7 @@
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>495300</xdr:colOff>
       <xdr:row>18</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
@@ -1403,7 +1406,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2743200" y="2886075"/>
-          <a:ext cx="3648075" cy="1171575"/>
+          <a:ext cx="5181600" cy="1171575"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1802,25 +1805,25 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M9"/>
+  <dimension ref="A1:N9"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="17.625" style="2" customWidth="1"/>
-    <col min="2" max="3" width="20.125" style="2" customWidth="1"/>
-    <col min="4" max="5" width="19.5" style="2" customWidth="1"/>
-    <col min="6" max="8" width="15.75" style="2" customWidth="1"/>
-    <col min="9" max="9" width="17.75" style="2" customWidth="1"/>
-    <col min="10" max="12" width="21.875" style="2" customWidth="1"/>
-    <col min="13" max="13" width="43.875" style="2" customWidth="1"/>
-    <col min="14" max="16384" width="9" style="2"/>
+    <col min="2" max="4" width="20.125" style="2" customWidth="1"/>
+    <col min="5" max="6" width="19.5" style="2" customWidth="1"/>
+    <col min="7" max="9" width="15.75" style="2" customWidth="1"/>
+    <col min="10" max="10" width="17.75" style="2" customWidth="1"/>
+    <col min="11" max="13" width="21.875" style="2" customWidth="1"/>
+    <col min="14" max="14" width="43.875" style="2" customWidth="1"/>
+    <col min="15" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:14">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1840,7 +1843,7 @@
         <v>5</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H1" s="3" t="s">
         <v>6</v>
@@ -1857,16 +1860,19 @@
       <c r="L1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" s="3" t="s">
         <v>11</v>
       </c>
+      <c r="N1" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:14">
       <c r="A2" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>14</v>
@@ -1875,13 +1881,13 @@
         <v>15</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H2" s="3" t="s">
         <v>17</v>
@@ -1890,57 +1896,59 @@
         <v>18</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="M2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="M2" s="3" t="s">
         <v>20</v>
       </c>
+      <c r="N2" s="2" t="s">
+        <v>21</v>
+      </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:14">
       <c r="A3" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
-      <c r="E3" s="3" t="s">
-        <v>23</v>
-      </c>
+      <c r="E3" s="3"/>
       <c r="F3" s="3" t="s">
         <v>24</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="H3" s="3"/>
-      <c r="I3"/>
-      <c r="J3" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="K3" s="3"/>
+      <c r="H3" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="I3" s="3"/>
+      <c r="J3"/>
+      <c r="K3" s="3" t="s">
+        <v>26</v>
+      </c>
       <c r="L3" s="3"/>
-      <c r="M3" s="2" t="s">
-        <v>24</v>
+      <c r="M3" s="3"/>
+      <c r="N3" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:14">
       <c r="A4" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>28</v>
       </c>
+      <c r="C4" s="1"/>
       <c r="D4" s="1" t="s">
         <v>29</v>
       </c>
@@ -1948,13 +1956,13 @@
         <v>30</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>5</v>
+        <v>31</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>31</v>
+        <v>6</v>
       </c>
       <c r="I4" s="1" t="s">
         <v>32</v>
@@ -1971,23 +1979,23 @@
       <c r="M4" s="1" t="s">
         <v>36</v>
       </c>
+      <c r="N4" s="1" t="s">
+        <v>37</v>
+      </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:14">
       <c r="A5" s="2">
         <v>100</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D5" s="4">
+        <v>38</v>
+      </c>
+      <c r="E5" s="4">
         <v>0.6</v>
       </c>
-      <c r="E5" s="4"/>
-      <c r="G5" s="2">
+      <c r="F5" s="4"/>
+      <c r="H5" s="2">
         <v>10</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>38</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>39</v>
@@ -2004,73 +2012,77 @@
       <c r="M5" s="2" t="s">
         <v>43</v>
       </c>
+      <c r="N5" s="2" t="s">
+        <v>44</v>
+      </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:11">
       <c r="A6" s="2">
         <v>101</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D6" s="4">
+        <v>45</v>
+      </c>
+      <c r="E6" s="4">
         <v>0.8</v>
       </c>
-      <c r="E6" s="4"/>
-      <c r="F6" s="2">
+      <c r="F6" s="4"/>
+      <c r="G6" s="2">
         <v>3</v>
       </c>
-      <c r="G6" s="2">
+      <c r="H6" s="2">
         <v>1</v>
       </c>
-      <c r="I6" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="J6" s="2">
+      <c r="J6" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="K6" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:10">
       <c r="A7" s="2">
         <v>102</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D7" s="4">
+        <v>47</v>
+      </c>
+      <c r="E7" s="4">
         <v>0.7</v>
       </c>
-      <c r="E7" s="4"/>
-      <c r="I7" s="2" t="s">
-        <v>47</v>
+      <c r="F7" s="4"/>
+      <c r="J7" s="2" t="s">
+        <v>48</v>
       </c>
     </row>
-    <row r="8" ht="33" spans="1:9">
+    <row r="8" ht="33" spans="1:10">
       <c r="A8" s="2">
         <v>103</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C8" s="5"/>
-      <c r="D8" s="4"/>
+      <c r="D8" s="5"/>
       <c r="E8" s="4"/>
-      <c r="I8" s="2" t="s">
-        <v>49</v>
+      <c r="F8" s="4"/>
+      <c r="J8" s="2" t="s">
+        <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:10">
       <c r="A9" s="2">
         <v>104</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D9" s="4">
+        <v>51</v>
+      </c>
+      <c r="E9" s="4">
         <v>1</v>
       </c>
-      <c r="E9" s="4"/>
-      <c r="I9" s="2" t="s">
-        <v>45</v>
+      <c r="F9" s="4"/>
+      <c r="J9" s="2" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -2087,7 +2099,7 @@
   <sheetPr/>
   <dimension ref="A1:I7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H4" sqref="H4:H7"/>
     </sheetView>
   </sheetViews>
@@ -2102,122 +2114,122 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" ht="16.5" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D4"/>
       <c r="E4" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F4">
         <v>10</v>
       </c>
       <c r="I4" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E5" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s">
+        <v>74</v>
+      </c>
+      <c r="C6" t="s">
         <v>19</v>
       </c>
-      <c r="B6" t="s">
-        <v>73</v>
-      </c>
-      <c r="C6" t="s">
-        <v>18</v>
-      </c>
       <c r="E6" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>
